--- a/prod_manage_QA/mobile_manual_testing/static_analysis/Checklist-Analise-Estática-16-09-2024.xlsx
+++ b/prod_manage_QA/mobile_manual_testing/static_analysis/Checklist-Analise-Estática-16-09-2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Documents\Curso Flutter\prod_manage\prod_manage_QA\mobile_manual_testing\static_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,12 +39,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>Projeto / Sistema:</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>Função postRole na classe ApiService.</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -360,6 +500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF00CC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -661,7 +807,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,18 +824,18 @@
   <sheetData>
     <row r="2" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -718,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -726,16 +872,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -745,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -756,14 +902,14 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B17" si="0">B9+1</f>
+        <f t="shared" ref="B10:B15" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -775,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -790,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -805,10 +951,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -820,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -835,16 +981,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -865,73 +1011,17 @@
       <c r="G17" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D8:D9 D17">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"Não"</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Sim"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Não"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Sim"</formula>
+      <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D17">
-      <formula1>"Sim,Não"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"-,OK,NOK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
